--- a/ComCastCRMGUIFrameWork/Test_Data/Multiple_Row_Data.xlsx
+++ b/ComCastCRMGUIFrameWork/Test_Data/Multiple_Row_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="product" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="contact" sheetId="5" r:id="rId5"/>
+    <sheet name="products" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>TC_ID</t>
   </si>
@@ -152,13 +153,28 @@
     <t>Apple iPhone 16 (Teal, 256 GB)</t>
   </si>
   <si>
-    <t>tc_07</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Wildcraft Bags</t>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity In Stock</t>
+  </si>
+  <si>
+    <t>Coach Bag</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Usage Unit</t>
+  </si>
+  <si>
+    <t>Pieces</t>
   </si>
 </sst>
 </file>
@@ -180,7 +196,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,13 +240,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,26 +843,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,4 +1062,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>